--- a/Beatrice_korpus.xlsx
+++ b/Beatrice_korpus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="272">
   <si>
     <t>urn</t>
   </si>
@@ -199,9 +199,6 @@
     <t>URN:NBN:no-nb_digibok_2015110908267</t>
   </si>
   <si>
-    <t>URN:NBN:no-nb_digibok_2006112101011</t>
-  </si>
-  <si>
     <t>URN:NBN:no-nb_digibok_2009061903027</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>Den norske Literatur fra 1814 indtil vore Dage : et Bidrag til en norsk Literaturhistorie</t>
   </si>
   <si>
-    <t>Norsk Forfatter-Lexicon 1814-1856</t>
-  </si>
-  <si>
     <t>Omrids af den norske Poesis Historie : literærhistoriske Forelæsninger . 1 : Norges Bidrag til Fællesliteraturen</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>Hansen , H. Olaf</t>
   </si>
   <si>
-    <t>Kraft , Jens / Lange , Christian C. A. / Dahl , Johan A. / Gundersen , Jens Christian</t>
-  </si>
-  <si>
     <t>Dietrichson , L. ( Lorentz )</t>
   </si>
   <si>
@@ -541,9 +532,6 @@
     <t>oai:nb.bibsys.no:998440092454702202</t>
   </si>
   <si>
-    <t>oai:nb.bibsys.no:999324660014702202</t>
-  </si>
-  <si>
     <t>oai:nb.bibsys.no:999417467474702202</t>
   </si>
   <si>
@@ -673,9 +661,6 @@
     <t>7dd784d714c77afa39a0d8701a5b4226</t>
   </si>
   <si>
-    <t>1a91deda9782bcad43f8cf8f1b847b2b</t>
-  </si>
-  <si>
     <t>5d641b18fdfa1a000646e3740da127c1</t>
   </si>
   <si>
@@ -748,9 +733,6 @@
     <t>Fr. Wøldike</t>
   </si>
   <si>
-    <t>Johan Dahl's Forlag. J. Chr. Gundersens Bogtrykkeri</t>
-  </si>
-  <si>
     <t>nob</t>
   </si>
   <si>
@@ -832,19 +814,7 @@
     <t>Litteratur / Norsk litteratur / Historisk framstilling / norsk / litteraturhistorie / 1800-tallet</t>
   </si>
   <si>
-    <t>Forfattere / 1800-tallet / Forfattere / Norsk litteratur / Forfattere / Biografiske oppslagsverk / nasjonalbibliografier / norge / forfattere</t>
-  </si>
-  <si>
     <t>norsk / litteraturhistorie / lyrikk</t>
-  </si>
-  <si>
-    <t>839.8209</t>
-  </si>
-  <si>
-    <t>015.481</t>
-  </si>
-  <si>
-    <t>encyclopedia</t>
   </si>
   <si>
     <t>Uklassifisert</t>
@@ -1217,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,19 +1263,19 @@
         <v>100001609</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J2">
         <v>19350101</v>
@@ -1314,22 +1284,22 @@
         <v>1935</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" t="s">
         <v>245</v>
       </c>
-      <c r="N2" t="s">
-        <v>251</v>
-      </c>
       <c r="Q2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T2">
         <v>20060101</v>
@@ -1346,16 +1316,16 @@
         <v>100043647</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J3">
         <v>19520101</v>
@@ -1364,25 +1334,25 @@
         <v>1952</v>
       </c>
       <c r="L3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O3" t="s">
-        <v>274</v>
+        <v>246</v>
+      </c>
+      <c r="O3">
+        <v>839.8209000000001</v>
       </c>
       <c r="Q3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T3">
         <v>20060101</v>
@@ -1399,19 +1369,19 @@
         <v>100104740</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J4">
         <v>19320101</v>
@@ -1420,19 +1390,19 @@
         <v>1932</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T4">
         <v>20060101</v>
@@ -1449,19 +1419,19 @@
         <v>100113488</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J5">
         <v>19010101</v>
@@ -1470,19 +1440,19 @@
         <v>1901</v>
       </c>
       <c r="L5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T5">
         <v>20060101</v>
@@ -1499,19 +1469,19 @@
         <v>100172941</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J6">
         <v>19250101</v>
@@ -1520,19 +1490,19 @@
         <v>1925</v>
       </c>
       <c r="L6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T6">
         <v>20060101</v>
@@ -1549,19 +1519,19 @@
         <v>100175363</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J7">
         <v>19390101</v>
@@ -1570,22 +1540,22 @@
         <v>1939</v>
       </c>
       <c r="L7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T7">
         <v>20060101</v>
@@ -1602,19 +1572,19 @@
         <v>100196129</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J8">
         <v>19330101</v>
@@ -1623,19 +1593,19 @@
         <v>1933</v>
       </c>
       <c r="L8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q8" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R8" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S8" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T8">
         <v>20060101</v>
@@ -1652,19 +1622,19 @@
         <v>100219030</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J9">
         <v>19340101</v>
@@ -1673,19 +1643,19 @@
         <v>1934</v>
       </c>
       <c r="L9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T9">
         <v>20060101</v>
@@ -1702,19 +1672,19 @@
         <v>100223051</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J10">
         <v>19190101</v>
@@ -1723,22 +1693,22 @@
         <v>1919</v>
       </c>
       <c r="L10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q10" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T10">
         <v>20060101</v>
@@ -1755,19 +1725,19 @@
         <v>100223190</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J11">
         <v>19120101</v>
@@ -1776,22 +1746,22 @@
         <v>1912</v>
       </c>
       <c r="L11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T11">
         <v>20060101</v>
@@ -1808,19 +1778,19 @@
         <v>100274402</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J12">
         <v>19150101</v>
@@ -1829,19 +1799,19 @@
         <v>1915</v>
       </c>
       <c r="L12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q12" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R12" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S12" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T12">
         <v>20060101</v>
@@ -1858,19 +1828,19 @@
         <v>100275217</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J13">
         <v>19090101</v>
@@ -1879,19 +1849,19 @@
         <v>1909</v>
       </c>
       <c r="L13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S13" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T13">
         <v>20060101</v>
@@ -1908,19 +1878,19 @@
         <v>100341242</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J14">
         <v>19370101</v>
@@ -1929,22 +1899,22 @@
         <v>1937</v>
       </c>
       <c r="L14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T14">
         <v>20060101</v>
@@ -1961,19 +1931,19 @@
         <v>100378517</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J15">
         <v>19240101</v>
@@ -1982,22 +1952,22 @@
         <v>1924</v>
       </c>
       <c r="L15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q15" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R15" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T15">
         <v>20060101</v>
@@ -2014,19 +1984,19 @@
         <v>100443301</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J16">
         <v>19070101</v>
@@ -2035,19 +2005,19 @@
         <v>1907</v>
       </c>
       <c r="L16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q16" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R16" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S16" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T16">
         <v>20060101</v>
@@ -2064,16 +2034,16 @@
         <v>100461077</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J17">
         <v>19080101</v>
@@ -2082,25 +2052,25 @@
         <v>1908</v>
       </c>
       <c r="L17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N17" t="s">
-        <v>258</v>
-      </c>
-      <c r="O17" t="s">
-        <v>275</v>
+        <v>252</v>
+      </c>
+      <c r="O17">
+        <v>15.481</v>
       </c>
       <c r="Q17" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S17" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T17">
         <v>20060101</v>
@@ -2117,19 +2087,19 @@
         <v>100461100</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J18">
         <v>19240101</v>
@@ -2138,22 +2108,22 @@
         <v>1924</v>
       </c>
       <c r="L18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q18" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R18" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S18" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T18">
         <v>20060101</v>
@@ -2170,19 +2140,19 @@
         <v>100464079</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J19">
         <v>19340101</v>
@@ -2191,22 +2161,22 @@
         <v>1934</v>
       </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q19" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R19" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S19" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T19">
         <v>20060101</v>
@@ -2223,19 +2193,19 @@
         <v>100465978</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J20">
         <v>19340101</v>
@@ -2244,22 +2214,22 @@
         <v>1934</v>
       </c>
       <c r="L20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q20" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S20" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T20">
         <v>20060101</v>
@@ -2276,19 +2246,19 @@
         <v>100507954</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J21">
         <v>19350101</v>
@@ -2297,22 +2267,22 @@
         <v>1935</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q21" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R21" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S21" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T21">
         <v>20060101</v>
@@ -2329,19 +2299,19 @@
         <v>100509079</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J22">
         <v>19350101</v>
@@ -2350,22 +2320,22 @@
         <v>1935</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S22" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T22">
         <v>20060101</v>
@@ -2382,19 +2352,19 @@
         <v>100557173</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J23">
         <v>19290101</v>
@@ -2403,19 +2373,19 @@
         <v>1929</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q23" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R23" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S23" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T23">
         <v>20060101</v>
@@ -2432,19 +2402,19 @@
         <v>100570516</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J24">
         <v>19320101</v>
@@ -2453,22 +2423,22 @@
         <v>1932</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N24" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q24" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S24" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T24">
         <v>20060101</v>
@@ -2485,19 +2455,19 @@
         <v>100570545</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J25">
         <v>19340101</v>
@@ -2506,22 +2476,22 @@
         <v>1934</v>
       </c>
       <c r="L25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T25">
         <v>20060101</v>
@@ -2538,19 +2508,19 @@
         <v>100573211</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J26">
         <v>19380101</v>
@@ -2559,22 +2529,22 @@
         <v>1938</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q26" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R26" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T26">
         <v>20060101</v>
@@ -2591,19 +2561,19 @@
         <v>100577718</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J27">
         <v>19040101</v>
@@ -2612,22 +2582,22 @@
         <v>1904</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q27" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R27" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S27" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T27">
         <v>20060101</v>
@@ -2644,19 +2614,19 @@
         <v>100614108</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J28">
         <v>19050101</v>
@@ -2665,22 +2635,22 @@
         <v>1905</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q28" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R28" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S28" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T28">
         <v>20221201</v>
@@ -2697,16 +2667,16 @@
         <v>100614343</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J29">
         <v>18850101</v>
@@ -2715,25 +2685,25 @@
         <v>1885</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
-      </c>
-      <c r="O29" t="s">
-        <v>275</v>
+        <v>259</v>
+      </c>
+      <c r="O29">
+        <v>15.481</v>
       </c>
       <c r="Q29" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R29" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S29" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T29">
         <v>20221201</v>
@@ -2750,16 +2720,16 @@
         <v>100614347</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J30">
         <v>18880101</v>
@@ -2768,25 +2738,25 @@
         <v>1888</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N30" t="s">
-        <v>265</v>
-      </c>
-      <c r="O30" t="s">
-        <v>275</v>
+        <v>259</v>
+      </c>
+      <c r="O30">
+        <v>15.481</v>
       </c>
       <c r="Q30" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S30" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T30">
         <v>20221201</v>
@@ -2803,16 +2773,16 @@
         <v>100614410</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J31">
         <v>19010101</v>
@@ -2821,25 +2791,25 @@
         <v>1901</v>
       </c>
       <c r="L31" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
-      </c>
-      <c r="O31" t="s">
-        <v>275</v>
+        <v>260</v>
+      </c>
+      <c r="O31">
+        <v>15.481</v>
       </c>
       <c r="Q31" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R31" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S31" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T31">
         <v>20221201</v>
@@ -2856,16 +2826,16 @@
         <v>100614481</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J32">
         <v>18960101</v>
@@ -2874,25 +2844,25 @@
         <v>1896</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s">
-        <v>265</v>
-      </c>
-      <c r="O32" t="s">
-        <v>275</v>
+        <v>259</v>
+      </c>
+      <c r="O32">
+        <v>15.481</v>
       </c>
       <c r="Q32" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R32" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T32">
         <v>20221201</v>
@@ -2909,16 +2879,16 @@
         <v>100614587</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J33">
         <v>18920101</v>
@@ -2927,25 +2897,25 @@
         <v>1892</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s">
-        <v>258</v>
-      </c>
-      <c r="O33" t="s">
-        <v>275</v>
+        <v>252</v>
+      </c>
+      <c r="O33">
+        <v>15.481</v>
       </c>
       <c r="Q33" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R33" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S33" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T33">
         <v>20221201</v>
@@ -2962,19 +2932,19 @@
         <v>100618094</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J34">
         <v>18960101</v>
@@ -2983,22 +2953,22 @@
         <v>1896</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q34" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R34" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T34">
         <v>20221201</v>
@@ -3015,19 +2985,19 @@
         <v>100618095</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J35">
         <v>18960101</v>
@@ -3036,22 +3006,22 @@
         <v>1896</v>
       </c>
       <c r="L35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N35" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q35" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R35" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S35" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T35">
         <v>20221201</v>
@@ -3068,19 +3038,19 @@
         <v>100618096</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J36">
         <v>18960101</v>
@@ -3089,22 +3059,22 @@
         <v>1896</v>
       </c>
       <c r="L36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q36" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S36" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T36">
         <v>20221201</v>
@@ -3121,19 +3091,19 @@
         <v>100618584</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J37">
         <v>18850101</v>
@@ -3142,19 +3112,19 @@
         <v>1885</v>
       </c>
       <c r="L37" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q37" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="R37" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S37" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T37">
         <v>20221201</v>
@@ -3171,19 +3141,19 @@
         <v>100618588</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J38">
         <v>18780101</v>
@@ -3192,22 +3162,22 @@
         <v>1878</v>
       </c>
       <c r="L38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N38" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q38" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R38" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S38" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T38">
         <v>20221201</v>
@@ -3224,19 +3194,19 @@
         <v>100621102</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G39" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J39">
         <v>18610101</v>
@@ -3245,22 +3215,22 @@
         <v>1861</v>
       </c>
       <c r="L39" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q39" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R39" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S39" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T39">
         <v>20221201</v>
@@ -3277,19 +3247,19 @@
         <v>100621440</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J40">
         <v>18790101</v>
@@ -3298,16 +3268,16 @@
         <v>1879</v>
       </c>
       <c r="M40" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q40" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R40" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S40" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T40">
         <v>20221201</v>
@@ -3324,19 +3294,19 @@
         <v>100622125</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J41">
         <v>18780101</v>
@@ -3345,22 +3315,22 @@
         <v>1878</v>
       </c>
       <c r="L41" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M41" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q41" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R41" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S41" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T41">
         <v>20221201</v>
@@ -3377,19 +3347,19 @@
         <v>100624152</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" t="s">
         <v>217</v>
-      </c>
-      <c r="I42" t="s">
-        <v>222</v>
       </c>
       <c r="J42">
         <v>18880101</v>
@@ -3398,19 +3368,19 @@
         <v>1888</v>
       </c>
       <c r="L42" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q42" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="R42" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S42" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T42">
         <v>20221201</v>
@@ -3427,19 +3397,19 @@
         <v>100624786</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J43">
         <v>18620101</v>
@@ -3448,22 +3418,22 @@
         <v>1862</v>
       </c>
       <c r="L43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" t="s">
         <v>243</v>
       </c>
-      <c r="M43" t="s">
-        <v>249</v>
-      </c>
       <c r="N43" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>267</v>
+      </c>
+      <c r="R43" t="s">
+        <v>269</v>
+      </c>
+      <c r="S43" t="s">
         <v>271</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>277</v>
-      </c>
-      <c r="R43" t="s">
-        <v>279</v>
-      </c>
-      <c r="S43" t="s">
-        <v>281</v>
       </c>
       <c r="T43">
         <v>20221201</v>
@@ -3471,107 +3441,54 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="C44">
-        <v>100628085</v>
+        <v>100629314</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="I44" t="s">
+        <v>220</v>
       </c>
       <c r="J44">
-        <v>18630101</v>
+        <v>18660101</v>
       </c>
       <c r="K44">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="L44" t="s">
+        <v>221</v>
+      </c>
+      <c r="M44" t="s">
         <v>244</v>
       </c>
-      <c r="M44" t="s">
-        <v>245</v>
-      </c>
       <c r="N44" t="s">
-        <v>272</v>
-      </c>
-      <c r="P44" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="Q44" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="R44" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S44" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T44">
-        <v>20221209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45">
-        <v>100629314</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45">
-        <v>18660101</v>
-      </c>
-      <c r="K45">
-        <v>1866</v>
-      </c>
-      <c r="L45" t="s">
-        <v>226</v>
-      </c>
-      <c r="M45" t="s">
-        <v>250</v>
-      </c>
-      <c r="N45" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>277</v>
-      </c>
-      <c r="R45" t="s">
-        <v>279</v>
-      </c>
-      <c r="S45" t="s">
-        <v>281</v>
-      </c>
-      <c r="T45">
         <v>20221209</v>
       </c>
     </row>
